--- a/FILE_LOCATION/QuestionAssigner/frozen.xlsx
+++ b/FILE_LOCATION/QuestionAssigner/frozen.xlsx
@@ -8,15 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwon/code-repo/FILE_LOCATION/QuestionAssigner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71019DB0-E0E0-4F48-BC16-5C2AC4E5C339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530D7350-8B16-B047-A2A4-64CC21A40C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880" activeTab="1" xr2:uid="{A2E7151E-E131-3F40-8D9A-E3C6FD53D0E7}"/>
+    <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880" firstSheet="1" activeTab="8" xr2:uid="{A2E7151E-E131-3F40-8D9A-E3C6FD53D0E7}"/>
   </bookViews>
   <sheets>
     <sheet name="pick_1" sheetId="1" r:id="rId1"/>
-    <sheet name="pick_3" sheetId="4" r:id="rId2"/>
-    <sheet name="pick_2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
+    <sheet name="pick_2" sheetId="3" r:id="rId2"/>
+    <sheet name="pick_3" sheetId="4" r:id="rId3"/>
+    <sheet name="bon_1" sheetId="2" r:id="rId4"/>
+    <sheet name="bon_2" sheetId="5" r:id="rId5"/>
+    <sheet name="bon_3" sheetId="6" r:id="rId6"/>
+    <sheet name="gigi_1" sheetId="7" r:id="rId7"/>
+    <sheet name="gigi_2" sheetId="8" r:id="rId8"/>
+    <sheet name="gigi_3" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="131">
   <si>
     <t>문항 수</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -384,6 +389,119 @@
   </si>
   <si>
     <t>오답률</t>
+  </si>
+  <si>
+    <t>문제수</t>
+  </si>
+  <si>
+    <t>문제당 시간</t>
+  </si>
+  <si>
+    <t>힘과운동</t>
+  </si>
+  <si>
+    <t>특수상대성이론</t>
+  </si>
+  <si>
+    <t>저닉</t>
+  </si>
+  <si>
+    <t>전자의 에너지 준위</t>
+  </si>
+  <si>
+    <t>에너지띠와 반도체</t>
+  </si>
+  <si>
+    <t>자기</t>
+  </si>
+  <si>
+    <t>자기장과 물질의 자성</t>
+  </si>
+  <si>
+    <t>파동</t>
+  </si>
+  <si>
+    <t>파동의 성질</t>
+  </si>
+  <si>
+    <t>전반사화 광통신 및 전자기파</t>
+  </si>
+  <si>
+    <t>문제 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직류기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직류기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동기기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변압기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변압기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유도기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환기1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>변환기2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>문제 수</t>
+  </si>
+  <si>
+    <t>직류기1</t>
+  </si>
+  <si>
+    <t>직류기2</t>
+  </si>
+  <si>
+    <t>동기기1</t>
+  </si>
+  <si>
+    <t>동기기2</t>
+  </si>
+  <si>
+    <t>변압기1</t>
+  </si>
+  <si>
+    <t>변압기2</t>
+  </si>
+  <si>
+    <t>유도기1</t>
+  </si>
+  <si>
+    <t>유도기2</t>
+  </si>
+  <si>
+    <t>변환기1</t>
+  </si>
+  <si>
+    <t>변환기2</t>
   </si>
 </sst>
 </file>
@@ -394,7 +512,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="0_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -417,6 +535,13 @@
       <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="2">
@@ -441,7 +566,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -461,6 +586,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1673,996 +1804,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5291CBF-D7B3-C144-B772-B6EF22891602}">
-  <dimension ref="B3:K35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
-  <sheetData>
-    <row r="3" spans="2:11">
-      <c r="E3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" t="s">
-        <v>96</v>
-      </c>
-      <c r="H3" t="s">
-        <v>56</v>
-      </c>
-      <c r="I3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11">
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4">
-        <v>22</v>
-      </c>
-      <c r="F4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H4">
-        <f>ROUNDUP(E4*G4, 0)*F4</f>
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <f>H4/60</f>
-        <v>0.1</v>
-      </c>
-      <c r="J4" s="2">
-        <f>ROUNDDOWN(I4, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <f>(I4-J4) * 60</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11">
-      <c r="D5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5">
-        <v>41</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H33" si="0">ROUNDUP(E5*G5, 0)*F5</f>
-        <v>10</v>
-      </c>
-      <c r="I5" s="1">
-        <f t="shared" ref="I5:I33" si="1">H5/60</f>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J5" s="2">
-        <f t="shared" ref="J5:J33" si="2">ROUNDDOWN(I5, 0)</f>
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K33" si="3">(I5-J5) * 60</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11">
-      <c r="D6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E6">
-        <v>36</v>
-      </c>
-      <c r="F6">
-        <v>2</v>
-      </c>
-      <c r="G6" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I6" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J6" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11">
-      <c r="D7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E7">
-        <v>40</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
-      </c>
-      <c r="G7" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H7">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I7" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11">
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H8">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I8" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J8" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11">
-      <c r="C9" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9">
-        <v>44</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-      <c r="I9" s="1">
-        <f t="shared" si="1"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="J9" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <f t="shared" si="3"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11">
-      <c r="D10" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10">
-        <v>20</v>
-      </c>
-      <c r="F10">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H10">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I10" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J10" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11">
-      <c r="D11" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11">
-        <v>29</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I11" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J11" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11">
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12">
-        <v>19</v>
-      </c>
-      <c r="F12">
-        <v>2</v>
-      </c>
-      <c r="G12" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H12">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I12" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J12" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11">
-      <c r="D13" t="s">
-        <v>66</v>
-      </c>
-      <c r="E13">
-        <v>8</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H13">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I13" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J13" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11">
-      <c r="C14" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14">
-        <v>28</v>
-      </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J14" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11">
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15">
-        <v>16</v>
-      </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H15">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I15" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J15" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11">
-      <c r="D16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="F16">
-        <v>2</v>
-      </c>
-      <c r="G16" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J16" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11">
-      <c r="B17" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-      <c r="D17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E17">
-        <v>33</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H17">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J17" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11">
-      <c r="D18" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18">
-        <v>35</v>
-      </c>
-      <c r="F18">
-        <v>2</v>
-      </c>
-      <c r="G18" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H18">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I18" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J18" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11">
-      <c r="D19" t="s">
-        <v>79</v>
-      </c>
-      <c r="E19">
-        <v>19</v>
-      </c>
-      <c r="F19">
-        <v>2</v>
-      </c>
-      <c r="G19" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H19">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I19" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J19" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11">
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20">
-        <v>28</v>
-      </c>
-      <c r="F20">
-        <v>2</v>
-      </c>
-      <c r="G20" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H20">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I20" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J20" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11">
-      <c r="D21" t="s">
-        <v>66</v>
-      </c>
-      <c r="E21">
-        <v>8</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H21">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I21" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J21" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11">
-      <c r="C22" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E22">
-        <v>29</v>
-      </c>
-      <c r="F22">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I22" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J22" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11">
-      <c r="D23" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23">
-        <v>19</v>
-      </c>
-      <c r="F23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I23" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J23" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11">
-      <c r="D24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E24">
-        <v>37</v>
-      </c>
-      <c r="F24">
-        <v>2</v>
-      </c>
-      <c r="G24" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H24">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I24" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J24" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11">
-      <c r="D25" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25">
-        <v>8</v>
-      </c>
-      <c r="F25">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I25" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J25" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:11">
-      <c r="B26" t="s">
-        <v>85</v>
-      </c>
-      <c r="C26" t="s">
-        <v>86</v>
-      </c>
-      <c r="D26" t="s">
-        <v>87</v>
-      </c>
-      <c r="E26">
-        <v>32</v>
-      </c>
-      <c r="F26">
-        <v>2</v>
-      </c>
-      <c r="G26" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="I26" s="1">
-        <f t="shared" si="1"/>
-        <v>0.13333333333333333</v>
-      </c>
-      <c r="J26" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="27" spans="2:11">
-      <c r="D27" t="s">
-        <v>88</v>
-      </c>
-      <c r="E27">
-        <v>20</v>
-      </c>
-      <c r="F27">
-        <v>2</v>
-      </c>
-      <c r="G27" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H27">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I27" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J27" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11">
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-      <c r="E28">
-        <v>20</v>
-      </c>
-      <c r="F28">
-        <v>2</v>
-      </c>
-      <c r="G28" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H28">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I28" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J28" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11">
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29">
-        <v>28</v>
-      </c>
-      <c r="F29">
-        <v>2</v>
-      </c>
-      <c r="G29" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="I29" s="1">
-        <f t="shared" si="1"/>
-        <v>0.1</v>
-      </c>
-      <c r="J29" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:11">
-      <c r="D30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30">
-        <v>8</v>
-      </c>
-      <c r="F30">
-        <v>2</v>
-      </c>
-      <c r="G30" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H30">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I30" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J30" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11">
-      <c r="C31" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31">
-        <v>20</v>
-      </c>
-      <c r="F31">
-        <v>2</v>
-      </c>
-      <c r="G31" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H31">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I31" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J31" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11">
-      <c r="D32" t="s">
-        <v>93</v>
-      </c>
-      <c r="E32">
-        <v>16</v>
-      </c>
-      <c r="F32">
-        <v>2</v>
-      </c>
-      <c r="G32" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H32">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="I32" s="1">
-        <f t="shared" si="1"/>
-        <v>6.6666666666666666E-2</v>
-      </c>
-      <c r="J32" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="4:11">
-      <c r="D33" t="s">
-        <v>66</v>
-      </c>
-      <c r="E33">
-        <v>4</v>
-      </c>
-      <c r="F33">
-        <v>2</v>
-      </c>
-      <c r="G33" s="4">
-        <v>0.1</v>
-      </c>
-      <c r="H33">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="I33" s="1">
-        <f t="shared" si="1"/>
-        <v>3.3333333333333333E-2</v>
-      </c>
-      <c r="J33" s="2">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="4:11">
-      <c r="G35" t="s">
-        <v>94</v>
-      </c>
-      <c r="H35">
-        <f>SUM(H4:H33)</f>
-        <v>154</v>
-      </c>
-      <c r="I35" s="1">
-        <f>SUM(I4:I33)</f>
-        <v>2.5666666666666673</v>
-      </c>
-      <c r="J35" s="2">
-        <f>ROUNDDOWN(I35, 0)</f>
-        <v>2</v>
-      </c>
-      <c r="K35" s="2">
-        <f>(I35-J35)*60</f>
-        <v>34.000000000000043</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B910BE0A-06A1-0F4D-BA38-39A56E29F3A1}">
   <dimension ref="B3:K35"/>
   <sheetViews>
@@ -3719,12 +2860,1002 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5291CBF-D7B3-C144-B772-B6EF22891602}">
+  <dimension ref="B3:K35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:11">
+      <c r="E3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H4">
+        <f>ROUNDUP(E4*G4, 0)*F4</f>
+        <v>6</v>
+      </c>
+      <c r="I4" s="1">
+        <f>H4/60</f>
+        <v>0.1</v>
+      </c>
+      <c r="J4" s="2">
+        <f>ROUNDDOWN(I4, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f>(I4-J4) * 60</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="D5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5">
+        <v>41</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H33" si="0">ROUNDUP(E5*G5, 0)*F5</f>
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" ref="I5:I33" si="1">H5/60</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J5" s="2">
+        <f t="shared" ref="J5:J33" si="2">ROUNDDOWN(I5, 0)</f>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K33" si="3">(I5-J5) * 60</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I6" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="D7" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7">
+        <v>40</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I7" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J7" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="D8" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J8" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="C9" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9">
+        <v>44</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J11" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J13" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14">
+        <v>28</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J14" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="D15" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J15" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="D16" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J16" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11">
+      <c r="B17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17">
+        <v>33</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H17">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I17" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J17" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11">
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18">
+        <v>35</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J18" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11">
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19">
+        <v>19</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H19">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I19" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J19" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11">
+      <c r="D20" t="s">
+        <v>80</v>
+      </c>
+      <c r="E20">
+        <v>28</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I20" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J20" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11">
+      <c r="D21" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21">
+        <v>8</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J21" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11">
+      <c r="C22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22">
+        <v>29</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J22" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11">
+      <c r="D23" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23">
+        <v>19</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I23" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J23" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11">
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24">
+        <v>37</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J24" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="D25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E25">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I25" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J25" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
+        <v>87</v>
+      </c>
+      <c r="E26">
+        <v>32</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I26" s="1">
+        <f t="shared" si="1"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="D27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>2</v>
+      </c>
+      <c r="G27" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I27" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J27" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="D28" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J28" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29">
+        <v>28</v>
+      </c>
+      <c r="F29">
+        <v>2</v>
+      </c>
+      <c r="G29" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="J29" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="D30" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30">
+        <v>8</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J30" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="C31" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" t="s">
+        <v>92</v>
+      </c>
+      <c r="E31">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>2</v>
+      </c>
+      <c r="G31" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J31" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="D32" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="1"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J32" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="4:11">
+      <c r="D33" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33">
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <v>2</v>
+      </c>
+      <c r="G33" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="1"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J33" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="4:11">
+      <c r="G35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35">
+        <f>SUM(H4:H33)</f>
+        <v>154</v>
+      </c>
+      <c r="I35" s="1">
+        <f>SUM(I4:I33)</f>
+        <v>2.5666666666666673</v>
+      </c>
+      <c r="J35" s="2">
+        <f>ROUNDDOWN(I35, 0)</f>
+        <v>2</v>
+      </c>
+      <c r="K35" s="2">
+        <f>(I35-J35)*60</f>
+        <v>34.000000000000043</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6817CC1A-54C1-8940-8A05-F6B7C27418FF}">
   <dimension ref="B3:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -3938,4 +4069,1153 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{612D42F2-4E54-EC4A-8242-E258024F0FB7}">
+  <dimension ref="B3:G21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:7">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33</v>
+      </c>
+      <c r="E4" s="7">
+        <v>5</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31</v>
+      </c>
+      <c r="E5" s="7">
+        <v>5</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33</v>
+      </c>
+      <c r="E6" s="7">
+        <v>5</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>22</v>
+      </c>
+      <c r="E7" s="7">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39</v>
+      </c>
+      <c r="E8" s="7">
+        <v>5</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9" s="7">
+        <v>5</v>
+      </c>
+      <c r="F9" s="7">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30</v>
+      </c>
+      <c r="E10" s="7">
+        <v>5</v>
+      </c>
+      <c r="F10" s="7">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14</v>
+      </c>
+      <c r="E11" s="7">
+        <v>5</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20</v>
+      </c>
+      <c r="E12" s="7">
+        <v>5</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28</v>
+      </c>
+      <c r="E13" s="7">
+        <v>5</v>
+      </c>
+      <c r="F13" s="7">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29</v>
+      </c>
+      <c r="E14" s="7">
+        <v>5</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27</v>
+      </c>
+      <c r="E15" s="7">
+        <v>5</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7">
+        <v>3</v>
+      </c>
+      <c r="F16" s="7">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7">
+        <v>34</v>
+      </c>
+      <c r="E17" s="7">
+        <v>3</v>
+      </c>
+      <c r="F17" s="7">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7">
+        <v>32</v>
+      </c>
+      <c r="E18" s="7">
+        <v>3</v>
+      </c>
+      <c r="F18" s="7">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7">
+        <v>35</v>
+      </c>
+      <c r="E19" s="7">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F21" s="8">
+        <v>238</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3.9666666666666668</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30583EFC-0783-EB4A-8A3D-7AF8A5D34B5C}">
+  <dimension ref="B3:H21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="2:8">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="7">
+        <v>33</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>20</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="7">
+        <v>31</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>20</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="7">
+        <v>33</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>20</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="7">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="7">
+        <v>15</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="7">
+        <v>39</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>20</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="7">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" s="7">
+        <v>15</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="7">
+        <v>30</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" s="7">
+        <v>15</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" s="7">
+        <v>10</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="7">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12" s="7">
+        <v>10</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H12" s="1"/>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="7">
+        <v>28</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="7">
+        <v>15</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H13" s="1"/>
+    </row>
+    <row r="14" spans="2:8">
+      <c r="B14" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" s="7">
+        <v>29</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14" s="7">
+        <v>15</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H14" s="1"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15" s="7">
+        <v>15</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.25</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>34</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16" s="7">
+        <v>12</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+    <row r="17" spans="2:8">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" s="7">
+        <v>34</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" s="7">
+        <v>12</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H17" s="1"/>
+    </row>
+    <row r="18" spans="2:8">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D18" s="7">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7">
+        <v>12</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="1"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D19" s="7">
+        <v>35</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19" s="7">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D15A1A80-8B27-C04F-A8C5-7471DE439B4E}">
+  <dimension ref="C3:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>51</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>47</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>27</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>39</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>19</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B49EF5E4-E7C1-F347-A420-BBD20F77D095}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="3">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5" s="3">
+        <v>5</v>
+      </c>
+      <c r="E5" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="3">
+        <v>8</v>
+      </c>
+      <c r="E6" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D7" s="3">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D9" s="3">
+        <v>5</v>
+      </c>
+      <c r="E9" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D10" s="3">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6</v>
+      </c>
+      <c r="E11" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D12" s="3">
+        <v>8</v>
+      </c>
+      <c r="E12" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D13" s="3">
+        <v>4</v>
+      </c>
+      <c r="E13" s="3">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E30279-D42E-8C4F-A887-DCC7A7EBC65C}">
+  <dimension ref="C3:E13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4" t="s">
+        <v>110</v>
+      </c>
+      <c r="D4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6" t="s">
+        <v>112</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="C9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/FILE_LOCATION/QuestionAssigner/frozen.xlsx
+++ b/FILE_LOCATION/QuestionAssigner/frozen.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiwon/code-repo/FILE_LOCATION/QuestionAssigner/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530D7350-8B16-B047-A2A4-64CC21A40C68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A052B991-E975-3E4F-AC83-ED1797A67315}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14820" yWindow="760" windowWidth="15420" windowHeight="18880" firstSheet="1" activeTab="8" xr2:uid="{A2E7151E-E131-3F40-8D9A-E3C6FD53D0E7}"/>
   </bookViews>
@@ -4920,7 +4920,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E13"/>
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -4960,7 +4960,7 @@
         <v>11</v>
       </c>
       <c r="E4" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -4973,7 +4973,7 @@
         <v>5</v>
       </c>
       <c r="E5" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -4986,7 +4986,7 @@
         <v>8</v>
       </c>
       <c r="E6" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -4999,7 +4999,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5012,7 +5012,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5025,7 +5025,7 @@
         <v>5</v>
       </c>
       <c r="E9" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5038,7 +5038,7 @@
         <v>10</v>
       </c>
       <c r="E10" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -5051,7 +5051,7 @@
         <v>6</v>
       </c>
       <c r="E11" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -5064,7 +5064,7 @@
         <v>8</v>
       </c>
       <c r="E12" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5077,7 +5077,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="3">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -5090,8 +5090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69E30279-D42E-8C4F-A887-DCC7A7EBC65C}">
   <dimension ref="C3:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -5112,7 +5112,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="3:5">
@@ -5123,7 +5123,7 @@
         <v>3</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="3:5">
@@ -5134,7 +5134,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="3:5">
@@ -5145,7 +5145,7 @@
         <v>3</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="3:5">
@@ -5156,7 +5156,7 @@
         <v>5</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="3:5">
@@ -5167,7 +5167,7 @@
         <v>3</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="3:5">
@@ -5178,7 +5178,7 @@
         <v>5</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="3:5">
@@ -5189,7 +5189,7 @@
         <v>3</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="3:5">
@@ -5200,7 +5200,7 @@
         <v>4</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="3:5">
@@ -5211,7 +5211,7 @@
         <v>2</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
